--- a/episodes/data/training_attendance.xlsx
+++ b/episodes/data/training_attendance.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timdennis/Documents/GitHub/lc-spreadsheets/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmuriel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB5DECD-9DD0-EF42-A7A0-A9F9EDA9483C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A9F5B-0E0B-4102-8D10-E2C0E70F9BD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21940" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9825" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
     <sheet name="2017" sheetId="2" r:id="rId2"/>
     <sheet name="Dates" sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
+    <sheet name="cleaned" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">cleaned!$A$1:$M$83</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="91">
   <si>
     <t>RDM training</t>
   </si>
@@ -262,18 +266,58 @@
   </si>
   <si>
     <t>1.5 hour</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Open access</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Length_hours</t>
+  </si>
+  <si>
+    <t>Delivered_by</t>
+  </si>
+  <si>
+    <t>Attendees_PGR</t>
+  </si>
+  <si>
+    <t>Attendees_PDRA</t>
+  </si>
+  <si>
+    <t>Attendees_Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d\ mmm"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="d\ mmm\ "/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -284,19 +328,25 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -380,17 +430,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -423,9 +468,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3834D389-CC3D-435A-8952-9914D0484047}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -807,903 +864,901 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" ht="14" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="6">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
         <v>42381</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>1.5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>42377</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>20</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="8">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
         <v>42407</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>42382</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>21</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="8">
+      <c r="J5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
         <v>42433</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>42391</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>35</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="8">
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
         <v>42435</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>42402</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>36</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="8">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
         <v>77</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>1.5</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>42403</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>22</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="8">
+      <c r="J8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
         <v>42450</v>
       </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>42403</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>30</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="11">
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
         <v>42452</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>42420</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>36</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="8">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
         <v>42479</v>
       </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>42428</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>28</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="8">
+      <c r="J11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
         <v>42490</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>1.5</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>42448</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>33</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="8">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
         <v>42525</v>
       </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>42448</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>39</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="8">
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
         <v>42533</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>42464</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>21</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="8">
+      <c r="J14" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
         <v>42543</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>1.5</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>42495</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>25</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="8">
+      <c r="J15" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
         <v>177</v>
       </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>42508</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>22</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="8">
+      <c r="J16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
         <v>42551</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>1.5</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>42509</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>20</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="8">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="6">
         <v>42552</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>1.5</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>42511</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>21</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="8">
+      <c r="J18" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
         <v>42557</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>1.5</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>42535</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>37</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="8">
+      <c r="J19" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="6">
         <v>42558</v>
       </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>42539</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>25</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="8">
+      <c r="J20" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
         <v>42560</v>
       </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>42555</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>39</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="8">
+      <c r="J21" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
         <v>42581</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>42557</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>39</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="8">
+      <c r="J22" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
         <v>42611</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>1.5</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>42561</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <v>34</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="8">
+      <c r="J23" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="6">
         <v>42623</v>
       </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>42564</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>23</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="11">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="9">
         <v>42634</v>
       </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>42568</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>30</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="8">
+      <c r="J25" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="6">
         <v>42644</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>42585</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>28</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="8">
+      <c r="J26" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="6">
         <v>42668</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>1.5</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>42602</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>32</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="8">
+      <c r="J27" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="6">
         <v>42678</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>1.5</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>42608</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>25</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="8">
+      <c r="J28" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="6">
         <v>42679</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="9">
         <v>42610</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="10">
         <v>33</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="8">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
         <v>42682</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>42644</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <v>38</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="8">
+      <c r="J30" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
         <v>42705</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>42664</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="7">
         <v>34</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="13">
+      <c r="J31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="11">
         <v>42723</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <v>2</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <v>42683</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>32</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G33" s="8">
+      <c r="J32" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G33" s="6">
         <v>42689</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>35</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G34" s="8">
+      <c r="J33" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G34" s="6">
         <v>42689</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="7">
         <v>27</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G35" s="8">
+      <c r="J34" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G35" s="6">
         <v>42706</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>35</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G36" s="8">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G36" s="6">
         <v>42711</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>23</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G37" s="8">
+      <c r="J36" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G37" s="6">
         <v>42715</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>38</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G38" s="13">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G38" s="11">
         <v>42723</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="12">
         <v>20</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1726,634 +1781,634 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" customWidth="1"/>
-    <col min="13" max="27" width="9.83203125" customWidth="1"/>
-    <col min="28" max="1025" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="27" width="9.85546875" customWidth="1"/>
+    <col min="28" max="1025" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-    </row>
-    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+    </row>
+    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-    </row>
-    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="5" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+    </row>
+    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-    </row>
-    <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18">
+      <c r="L3" s="14"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+    </row>
+    <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="16">
         <v>42770</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>1.5</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="21">
+      <c r="F4" s="13"/>
+      <c r="G4" s="19">
         <v>42751</v>
       </c>
-      <c r="H4" s="22">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="20">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
         <v>26</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="20">
         <v>23</v>
       </c>
-      <c r="K4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19" t="s">
+      <c r="K4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+    </row>
+    <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="23">
+      <c r="F5" s="13"/>
+      <c r="G5" s="21">
         <v>42771</v>
       </c>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
         <v>38</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>26</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="24">
+      <c r="K5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+    </row>
+    <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="22">
         <v>25619</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="23">
+      <c r="F6" s="13"/>
+      <c r="G6" s="21">
         <v>42783</v>
       </c>
-      <c r="H6" s="20">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>19</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <v>25</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="23">
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="21">
         <v>42797</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="23">
+      <c r="F7" s="13"/>
+      <c r="G7" s="21">
         <v>42801</v>
       </c>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>27</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>17</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="23">
+      <c r="K7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="21">
         <v>42798</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="23">
+      <c r="F8" s="13"/>
+      <c r="G8" s="21">
         <v>42823</v>
       </c>
-      <c r="H8" s="20">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>32</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <v>15</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="23">
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="21">
         <v>42833</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="25">
+      <c r="F9" s="13"/>
+      <c r="G9" s="23">
         <v>42827</v>
       </c>
-      <c r="H9" s="26">
-        <v>1</v>
-      </c>
-      <c r="I9" s="26">
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24">
         <v>41</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26" t="s">
+      <c r="J9" s="24"/>
+      <c r="K9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="23">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="21">
         <v>42881</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>2</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="23">
+      <c r="F10" s="13"/>
+      <c r="G10" s="21">
         <v>42849</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>2</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>44</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <v>44</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="20" t="s">
+      <c r="K10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="23">
+      <c r="F11" s="13"/>
+      <c r="G11" s="21">
         <v>42880</v>
       </c>
-      <c r="H11" s="20">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
         <v>43</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <v>37</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="27" t="s">
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <v>1.5</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="28">
+      <c r="F12" s="13"/>
+      <c r="G12" s="26">
         <v>42902</v>
       </c>
-      <c r="H12" s="27">
-        <v>1</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="H12" s="25">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
         <v>15</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="25">
         <v>15</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="15" t="s">
+      <c r="K12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2373,90 +2428,90 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>42123</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="31">
         <v>1.5</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="32">
         <v>1.5</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="31">
         <v>15</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>42066</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="31">
         <v>60</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="32">
         <v>19</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <v>25</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="31" t="s">
         <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>42188</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C4">
@@ -2475,57 +2530,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>42008</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="33">
-        <v>1</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32">
         <v>26</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <v>17</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>42092</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="33">
-        <v>1</v>
-      </c>
-      <c r="D6" s="34">
+      <c r="C6" s="31">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32">
         <v>27</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <v>24</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>42242</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C7">
@@ -2544,11 +2599,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>42946</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C8">
@@ -2567,34 +2622,34 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>42109</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="33">
-        <v>1</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="32">
         <v>32</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>20</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="31" t="s">
         <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>42129</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C10" t="s">
@@ -2613,11 +2668,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>42222</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C11">
@@ -2636,34 +2691,34 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>42042</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="33">
-        <v>1</v>
-      </c>
-      <c r="D12" s="34">
+      <c r="C12" s="31">
+        <v>1</v>
+      </c>
+      <c r="D12" s="32">
         <v>38</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="31">
         <v>20</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>42216</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C13" t="s">
@@ -2682,11 +2737,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>42352</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C14">
@@ -2705,11 +2760,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>42284</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C15">
@@ -2728,80 +2783,80 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>42111</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="31">
         <v>41</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>0</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="31" t="s">
         <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>42852</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="33">
-        <v>1</v>
-      </c>
-      <c r="D17" s="34">
+      <c r="C17" s="31">
+        <v>1</v>
+      </c>
+      <c r="D17" s="32">
         <v>43</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>31</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="31" t="s">
         <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>42119</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="31">
         <v>2</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>44</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>22</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>42168</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C19">
@@ -2820,11 +2875,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>42254</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C20">
@@ -2843,11 +2898,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>42209</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C21">
@@ -2866,11 +2921,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>42180</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C22">
@@ -2910,17 +2965,17 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2928,7 +2983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2936,7 +2991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2944,7 +2999,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2952,7 +3007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -2965,4 +3020,3028 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A09E44A-AD8D-4903-8482-62533D1E3C2E}">
+  <dimension ref="A1:M83"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="34">
+        <v>42381</v>
+      </c>
+      <c r="C2" s="35">
+        <f t="shared" ref="C2:C33" si="0">YEAR(B2)</f>
+        <v>2016</v>
+      </c>
+      <c r="D2" s="35">
+        <f t="shared" ref="D2:D33" si="1">MONTH(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="35">
+        <f t="shared" ref="E2:E33" si="2">DAY(B2)</f>
+        <v>12</v>
+      </c>
+      <c r="F2" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="33">
+        <v>45</v>
+      </c>
+      <c r="J2" s="33">
+        <v>45</v>
+      </c>
+      <c r="K2" s="33">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="34">
+        <v>42407</v>
+      </c>
+      <c r="C3" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D3" s="35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E3" s="35">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F3" s="33">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="33">
+        <v>38</v>
+      </c>
+      <c r="J3" s="33">
+        <v>38</v>
+      </c>
+      <c r="K3" s="33">
+        <v>0</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="34">
+        <v>42433</v>
+      </c>
+      <c r="C4" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D4" s="35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="35">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="33">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="33">
+        <v>46</v>
+      </c>
+      <c r="J4" s="33">
+        <v>43</v>
+      </c>
+      <c r="K4" s="33">
+        <v>3</v>
+      </c>
+      <c r="L4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="34">
+        <v>42435</v>
+      </c>
+      <c r="C5" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D5" s="35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="35">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="33">
+        <v>28</v>
+      </c>
+      <c r="J5" s="33">
+        <v>21</v>
+      </c>
+      <c r="K5" s="33">
+        <v>7</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="34">
+        <v>42446</v>
+      </c>
+      <c r="C6" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="35">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="33">
+        <v>35</v>
+      </c>
+      <c r="J6" s="33">
+        <v>34</v>
+      </c>
+      <c r="K6" s="33">
+        <v>1</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="34">
+        <v>42450</v>
+      </c>
+      <c r="C7" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D7" s="35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="33">
+        <v>27</v>
+      </c>
+      <c r="J7" s="33">
+        <v>25</v>
+      </c>
+      <c r="K7" s="33">
+        <v>2</v>
+      </c>
+      <c r="L7" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="34">
+        <v>42452</v>
+      </c>
+      <c r="C8" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D8" s="35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F8" s="33">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="33">
+        <v>42</v>
+      </c>
+      <c r="J8" s="33">
+        <v>32</v>
+      </c>
+      <c r="K8" s="33">
+        <v>10</v>
+      </c>
+      <c r="L8" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="34">
+        <v>42479</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="33">
+        <v>34</v>
+      </c>
+      <c r="J9" s="33">
+        <v>34</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="34">
+        <v>42490</v>
+      </c>
+      <c r="C10" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D10" s="35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="33">
+        <v>37</v>
+      </c>
+      <c r="J10" s="33">
+        <v>37</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0</v>
+      </c>
+      <c r="L10" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="34">
+        <v>42525</v>
+      </c>
+      <c r="C11" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D11" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="35">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="33">
+        <v>45</v>
+      </c>
+      <c r="J11" s="33">
+        <v>45</v>
+      </c>
+      <c r="K11" s="33">
+        <v>0</v>
+      </c>
+      <c r="L11" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="34">
+        <v>42533</v>
+      </c>
+      <c r="C12" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D12" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="35">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="33">
+        <v>2</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="33">
+        <v>36</v>
+      </c>
+      <c r="J12" s="33">
+        <v>36</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0</v>
+      </c>
+      <c r="L12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="34">
+        <v>42543</v>
+      </c>
+      <c r="C13" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D13" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="35">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="33">
+        <v>38</v>
+      </c>
+      <c r="J13" s="33">
+        <v>38</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="34">
+        <v>42546</v>
+      </c>
+      <c r="C14" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D14" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="35">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="33">
+        <v>39</v>
+      </c>
+      <c r="J14" s="33">
+        <v>35</v>
+      </c>
+      <c r="K14" s="33">
+        <v>4</v>
+      </c>
+      <c r="L14" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="34">
+        <v>42551</v>
+      </c>
+      <c r="C15" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="33">
+        <v>47</v>
+      </c>
+      <c r="J15" s="33">
+        <v>44</v>
+      </c>
+      <c r="K15" s="33">
+        <v>3</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="34">
+        <v>42552</v>
+      </c>
+      <c r="C16" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D16" s="35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="33">
+        <v>44</v>
+      </c>
+      <c r="J16" s="33">
+        <v>40</v>
+      </c>
+      <c r="K16" s="33">
+        <v>0</v>
+      </c>
+      <c r="L16" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="34">
+        <v>42557</v>
+      </c>
+      <c r="C17" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D17" s="35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="35">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="33">
+        <v>21</v>
+      </c>
+      <c r="J17" s="33">
+        <v>21</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+      <c r="L17" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="34">
+        <v>42558</v>
+      </c>
+      <c r="C18" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D18" s="35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="33">
+        <v>42</v>
+      </c>
+      <c r="J18" s="33">
+        <v>37</v>
+      </c>
+      <c r="K18" s="33">
+        <v>4</v>
+      </c>
+      <c r="L18" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="34">
+        <v>42560</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="33">
+        <v>36</v>
+      </c>
+      <c r="J19" s="33">
+        <v>29</v>
+      </c>
+      <c r="K19" s="33">
+        <v>7</v>
+      </c>
+      <c r="L19" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="34">
+        <v>42581</v>
+      </c>
+      <c r="C20" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D20" s="35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F20" s="33">
+        <v>2</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="33">
+        <v>25</v>
+      </c>
+      <c r="J20" s="33">
+        <v>22</v>
+      </c>
+      <c r="K20" s="33">
+        <v>3</v>
+      </c>
+      <c r="L20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="34">
+        <v>42611</v>
+      </c>
+      <c r="C21" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D21" s="35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E21" s="35">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F21" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="33">
+        <v>26</v>
+      </c>
+      <c r="J21" s="33">
+        <v>22</v>
+      </c>
+      <c r="K21" s="33">
+        <v>4</v>
+      </c>
+      <c r="L21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="34">
+        <v>42623</v>
+      </c>
+      <c r="C22" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D22" s="35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E22" s="35">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F22" s="33">
+        <v>1</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="33">
+        <v>38</v>
+      </c>
+      <c r="J22" s="33">
+        <v>38</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0</v>
+      </c>
+      <c r="L22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="34">
+        <v>42634</v>
+      </c>
+      <c r="C23" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D23" s="35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E23" s="35">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F23" s="33">
+        <v>1</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="33">
+        <v>31</v>
+      </c>
+      <c r="J23" s="33">
+        <v>31</v>
+      </c>
+      <c r="K23" s="33">
+        <v>0</v>
+      </c>
+      <c r="L23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="34">
+        <v>42644</v>
+      </c>
+      <c r="C24" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D24" s="35">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="33">
+        <v>2</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="33">
+        <v>40</v>
+      </c>
+      <c r="J24" s="33">
+        <v>26</v>
+      </c>
+      <c r="K24" s="33">
+        <v>9</v>
+      </c>
+      <c r="L24" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="34">
+        <v>42668</v>
+      </c>
+      <c r="C25" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D25" s="35">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="35">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F25" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="33">
+        <v>24</v>
+      </c>
+      <c r="J25" s="33">
+        <v>20</v>
+      </c>
+      <c r="K25" s="33">
+        <v>4</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="34">
+        <v>42678</v>
+      </c>
+      <c r="C26" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D26" s="35">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E26" s="35">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="33">
+        <v>48</v>
+      </c>
+      <c r="J26" s="33">
+        <v>38</v>
+      </c>
+      <c r="K26" s="33">
+        <v>5</v>
+      </c>
+      <c r="L26" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="34">
+        <v>42679</v>
+      </c>
+      <c r="C27" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D27" s="35">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E27" s="35">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="33">
+        <v>2</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="33">
+        <v>40</v>
+      </c>
+      <c r="J27" s="33">
+        <v>40</v>
+      </c>
+      <c r="K27" s="33">
+        <v>0</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="34">
+        <v>42682</v>
+      </c>
+      <c r="C28" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D28" s="35">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E28" s="35">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F28" s="33">
+        <v>2</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="33">
+        <v>29</v>
+      </c>
+      <c r="J28" s="33">
+        <v>22</v>
+      </c>
+      <c r="K28" s="33">
+        <v>7</v>
+      </c>
+      <c r="L28" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="34">
+        <v>42705</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="33">
+        <v>2</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="33">
+        <v>47</v>
+      </c>
+      <c r="J29" s="33">
+        <v>41</v>
+      </c>
+      <c r="K29" s="33">
+        <v>6</v>
+      </c>
+      <c r="L29" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="34">
+        <v>42723</v>
+      </c>
+      <c r="C30" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D30" s="35">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E30" s="35">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F30" s="33">
+        <v>2</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="33">
+        <v>49</v>
+      </c>
+      <c r="J30" s="33">
+        <v>39</v>
+      </c>
+      <c r="K30" s="33">
+        <v>9</v>
+      </c>
+      <c r="L30" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="34">
+        <v>42377</v>
+      </c>
+      <c r="C31" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D31" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="35">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="34">
+        <v>42382</v>
+      </c>
+      <c r="C32" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D32" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="35">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F32" s="33">
+        <v>1</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="34">
+        <v>42391</v>
+      </c>
+      <c r="C33" s="35">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D33" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="35">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F33" s="33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="34">
+        <v>42402</v>
+      </c>
+      <c r="C34" s="35">
+        <f t="shared" ref="C34:C65" si="3">YEAR(B34)</f>
+        <v>2016</v>
+      </c>
+      <c r="D34" s="35">
+        <f t="shared" ref="D34:D65" si="4">MONTH(B34)</f>
+        <v>2</v>
+      </c>
+      <c r="E34" s="35">
+        <f t="shared" ref="E34:E65" si="5">DAY(B34)</f>
+        <v>2</v>
+      </c>
+      <c r="F34" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="34">
+        <v>42403</v>
+      </c>
+      <c r="C35" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D35" s="35">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="35">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F35" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="34">
+        <v>42403</v>
+      </c>
+      <c r="C36" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D36" s="35">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="35">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F36" s="33">
+        <v>1</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="34">
+        <v>42420</v>
+      </c>
+      <c r="C37" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D37" s="35">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="35">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="34">
+        <v>42428</v>
+      </c>
+      <c r="C38" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D38" s="35">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F38" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="34">
+        <v>42448</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F39" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="34">
+        <v>42448</v>
+      </c>
+      <c r="C40" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D40" s="35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E40" s="35">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F40" s="33">
+        <v>1</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="34">
+        <v>42464</v>
+      </c>
+      <c r="C41" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D41" s="35">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E41" s="35">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F41" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="34">
+        <v>42495</v>
+      </c>
+      <c r="C42" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D42" s="35">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E42" s="35">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F42" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="34">
+        <v>42508</v>
+      </c>
+      <c r="C43" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D43" s="35">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E43" s="35">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F43" s="33">
+        <v>1</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="34">
+        <v>42509</v>
+      </c>
+      <c r="C44" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D44" s="35">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E44" s="35">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F44" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="34">
+        <v>42511</v>
+      </c>
+      <c r="C45" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D45" s="35">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E45" s="35">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="F45" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="34">
+        <v>42535</v>
+      </c>
+      <c r="C46" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D46" s="35">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E46" s="35">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F46" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="34">
+        <v>42539</v>
+      </c>
+      <c r="C47" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D47" s="35">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E47" s="35">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F47" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="34">
+        <v>42555</v>
+      </c>
+      <c r="C48" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D48" s="35">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E48" s="35">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F48" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="34">
+        <v>42557</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F49" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="34">
+        <v>42561</v>
+      </c>
+      <c r="C50" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D50" s="35">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E50" s="35">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F50" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I50" s="33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="34">
+        <v>42564</v>
+      </c>
+      <c r="C51" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D51" s="35">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E51" s="35">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="F51" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="34">
+        <v>42568</v>
+      </c>
+      <c r="C52" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D52" s="35">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E52" s="35">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="F52" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="34">
+        <v>42585</v>
+      </c>
+      <c r="C53" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D53" s="35">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E53" s="35">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F53" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="34">
+        <v>42602</v>
+      </c>
+      <c r="C54" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D54" s="35">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E54" s="35">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F54" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" s="33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="34">
+        <v>42608</v>
+      </c>
+      <c r="C55" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D55" s="35">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E55" s="35">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F55" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="34">
+        <v>42610</v>
+      </c>
+      <c r="C56" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D56" s="35">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E56" s="35">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F56" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="34">
+        <v>42644</v>
+      </c>
+      <c r="C57" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D57" s="35">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E57" s="35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="34">
+        <v>42664</v>
+      </c>
+      <c r="C58" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D58" s="35">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E58" s="35">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="F58" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" s="33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="34">
+        <v>42683</v>
+      </c>
+      <c r="C59" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D59" s="35">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E59" s="35">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="F59" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" s="33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="34">
+        <v>42689</v>
+      </c>
+      <c r="C60" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D60" s="35">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E60" s="35">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F60" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I60" s="33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="34">
+        <v>42689</v>
+      </c>
+      <c r="C61" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D61" s="35">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E61" s="35">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F61" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="34">
+        <v>42706</v>
+      </c>
+      <c r="C62" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D62" s="35">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E62" s="35">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F62" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62" s="33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="34">
+        <v>42711</v>
+      </c>
+      <c r="C63" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D63" s="35">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E63" s="35">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F63" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="34">
+        <v>42715</v>
+      </c>
+      <c r="C64" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D64" s="35">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E64" s="35">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="F64" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="34">
+        <v>42723</v>
+      </c>
+      <c r="C65" s="35">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="D65" s="35">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E65" s="35">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F65" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I65" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="34">
+        <v>42770</v>
+      </c>
+      <c r="C66" s="35">
+        <f t="shared" ref="C66:C83" si="6">YEAR(B66)</f>
+        <v>2017</v>
+      </c>
+      <c r="D66" s="35">
+        <f t="shared" ref="D66:D83" si="7">MONTH(B66)</f>
+        <v>2</v>
+      </c>
+      <c r="E66" s="35">
+        <f t="shared" ref="E66:E83" si="8">DAY(B66)</f>
+        <v>4</v>
+      </c>
+      <c r="F66" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="34">
+        <v>42773</v>
+      </c>
+      <c r="C67" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D67" s="35">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E67" s="35">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="34">
+        <v>42786</v>
+      </c>
+      <c r="C68" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D68" s="35">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E68" s="35">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="34">
+        <v>42797</v>
+      </c>
+      <c r="C69" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D69" s="35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E69" s="35">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F69" s="33">
+        <v>2</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69" s="33">
+        <v>18</v>
+      </c>
+      <c r="J69" s="33">
+        <v>15</v>
+      </c>
+      <c r="K69" s="33">
+        <v>3</v>
+      </c>
+      <c r="L69" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="34">
+        <v>42798</v>
+      </c>
+      <c r="C70" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D70" s="35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E70" s="35">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F70" s="33">
+        <v>2</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70" s="33">
+        <v>30</v>
+      </c>
+      <c r="J70" s="33">
+        <v>30</v>
+      </c>
+      <c r="K70" s="33">
+        <v>0</v>
+      </c>
+      <c r="L70" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="34">
+        <v>42833</v>
+      </c>
+      <c r="C71" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D71" s="35">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E71" s="35">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="F71" s="33">
+        <v>2</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71" s="33">
+        <v>31</v>
+      </c>
+      <c r="J71" s="33">
+        <v>30</v>
+      </c>
+      <c r="K71" s="33">
+        <v>0</v>
+      </c>
+      <c r="L71" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="34">
+        <v>42881</v>
+      </c>
+      <c r="C72" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D72" s="35">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E72" s="35">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="F72" s="33">
+        <v>2</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72" s="33">
+        <v>27</v>
+      </c>
+      <c r="J72" s="33">
+        <v>27</v>
+      </c>
+      <c r="K72" s="33">
+        <v>0</v>
+      </c>
+      <c r="L72" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="34">
+        <v>42888</v>
+      </c>
+      <c r="C73" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D73" s="35">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E73" s="35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F73" s="33">
+        <v>2</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="33">
+        <v>26</v>
+      </c>
+      <c r="J73" s="33">
+        <v>24</v>
+      </c>
+      <c r="K73" s="33">
+        <v>2</v>
+      </c>
+      <c r="L73" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="34">
+        <v>42889</v>
+      </c>
+      <c r="C74" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D74" s="35">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E74" s="35">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F74" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" s="33">
+        <v>23</v>
+      </c>
+      <c r="J74" s="33">
+        <v>12</v>
+      </c>
+      <c r="K74" s="33">
+        <v>7</v>
+      </c>
+      <c r="L74" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="34">
+        <v>42751</v>
+      </c>
+      <c r="C75" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D75" s="35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="35">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="F75" s="33">
+        <v>1</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75" s="33">
+        <v>23</v>
+      </c>
+      <c r="M75" s="33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="34">
+        <v>42771</v>
+      </c>
+      <c r="C76" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D76" s="35">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E76" s="35">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F76" s="33">
+        <v>1</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76" s="33">
+        <v>26</v>
+      </c>
+      <c r="M76" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="34">
+        <v>42783</v>
+      </c>
+      <c r="C77" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D77" s="35">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E77" s="35">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="F77" s="33">
+        <v>1</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77" s="33">
+        <v>25</v>
+      </c>
+      <c r="M77" s="33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="34">
+        <v>42801</v>
+      </c>
+      <c r="C78" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D78" s="35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E78" s="35">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="F78" s="33">
+        <v>1</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78" s="33">
+        <v>17</v>
+      </c>
+      <c r="M78" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="34">
+        <v>42823</v>
+      </c>
+      <c r="C79" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D79" s="35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E79" s="35">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="F79" s="33">
+        <v>1</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79" s="33">
+        <v>15</v>
+      </c>
+      <c r="M79" s="33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="34">
+        <v>42827</v>
+      </c>
+      <c r="C80" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D80" s="35">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E80" s="35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F80" s="33">
+        <v>1</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M80" s="33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="34">
+        <v>42849</v>
+      </c>
+      <c r="C81" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D81" s="35">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E81" s="35">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="F81" s="33">
+        <v>2</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81" s="33">
+        <v>44</v>
+      </c>
+      <c r="M81" s="33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="34">
+        <v>42880</v>
+      </c>
+      <c r="C82" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D82" s="35">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E82" s="35">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="F82" s="33">
+        <v>1</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82" s="33">
+        <v>37</v>
+      </c>
+      <c r="M82" s="33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="34">
+        <v>42902</v>
+      </c>
+      <c r="C83" s="35">
+        <f t="shared" si="6"/>
+        <v>2017</v>
+      </c>
+      <c r="D83" s="35">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E83" s="35">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="F83" s="33">
+        <v>1</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83" s="33">
+        <v>15</v>
+      </c>
+      <c r="M83" s="33">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>